--- a/C21_Board/C21_board_document/C21_Board_BOM.xlsx
+++ b/C21_Board/C21_board_document/C21_Board_BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\C21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\C21\C21_Board\C21_board_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -373,9 +373,6 @@
     <t>https://www.thegioiic.com/products/dien-tro-10-5-kohm-0805-1</t>
   </si>
   <si>
-    <t>R10,R13,R12,R2,R6,R8,R9 (Đây thường là trở kéo cao, không cần quá chính xác)</t>
-  </si>
-  <si>
     <t>R3,R11,R15,R16,R17 (Đây là trở hạn dòng cho led, cũng không cần quá chính xác)</t>
   </si>
   <si>
@@ -421,9 +418,6 @@
     <t>https://www.thegioiic.com/products/rs1m-sma-diode-chinh-luu-1a-1kv</t>
   </si>
   <si>
-    <t>D2 (Diode chống ngược, có thể chọn loại diode chỉnh lưu bình thường)</t>
-  </si>
-  <si>
     <t>https://www.thegioiic.com/products/hang-rao-cai-don-2-54mm-10-chan-1-hang-cao-11-8mm-xuyen-lo</t>
   </si>
   <si>
@@ -443,6 +437,12 @@
   </si>
   <si>
     <t>Jack DC 2.5mm</t>
+  </si>
+  <si>
+    <t>R10,R13,R12,R2,R6,R7,R8,R9 (Đây thường là trở kéo cao, không cần quá chính xác)</t>
+  </si>
+  <si>
+    <t>D5 (Diode chống ngược, có thể chọn loại diode chỉnh lưu bình thường)</t>
   </si>
 </sst>
 </file>
@@ -833,7 +833,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -848,7 +848,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1031,7 +1031,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>4</v>
@@ -1043,7 +1043,7 @@
         <v>74</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1054,7 +1054,7 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>4</v>
@@ -1066,7 +1066,7 @@
         <v>74</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1077,7 +1077,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>4</v>
@@ -1089,7 +1089,7 @@
         <v>74</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1100,7 +1100,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>4</v>
@@ -1126,7 +1126,7 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1135,7 +1135,7 @@
         <v>74</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1149,7 +1149,7 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1158,7 +1158,7 @@
         <v>74</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1169,7 +1169,7 @@
         <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1178,7 +1178,7 @@
         <v>74</v>
       </c>
       <c r="G16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1189,7 +1189,7 @@
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1198,7 +1198,7 @@
         <v>74</v>
       </c>
       <c r="G17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1241,7 +1241,7 @@
         <v>74</v>
       </c>
       <c r="G19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1258,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1298,7 +1298,7 @@
         <v>75</v>
       </c>
       <c r="G22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1315,7 +1315,7 @@
         <v>4</v>
       </c>
       <c r="G23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1407,7 +1407,7 @@
         <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s">
         <v>89</v>
@@ -1419,12 +1419,12 @@
         <v>74</v>
       </c>
       <c r="G30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A32" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="33.6" x14ac:dyDescent="0.65">

--- a/C21_Board/C21_board_document/C21_Board_BOM.xlsx
+++ b/C21_Board/C21_board_document/C21_Board_BOM.xlsx
@@ -346,9 +346,6 @@
     <t>Link + Image (From thegioiic, not needed to buy at thegioiic)</t>
   </si>
   <si>
-    <t>https://www.thegioiic.com/products/tu-gom-0805-100pf-50v</t>
-  </si>
-  <si>
     <t>https://www.thegioiic.com/products/tu-gom-0805-22pf-50v</t>
   </si>
   <si>
@@ -443,6 +440,9 @@
   </si>
   <si>
     <t>D5 (Diode chống ngược, có thể chọn loại diode chỉnh lưu bình thường)</t>
+  </si>
+  <si>
+    <t>https://www.thegioiic.com/products/tu-gom-0805-100nf-0-1uf-50v</t>
   </si>
 </sst>
 </file>
@@ -833,7 +833,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -848,7 +848,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -894,7 +894,7 @@
         <v>74</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -917,7 +917,7 @@
         <v>74</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -940,7 +940,7 @@
         <v>74</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -960,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -968,7 +968,7 @@
         <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
         <v>84</v>
@@ -980,7 +980,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1000,7 +1000,7 @@
         <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1020,7 +1020,7 @@
         <v>77</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1031,7 +1031,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>4</v>
@@ -1043,7 +1043,7 @@
         <v>74</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1054,7 +1054,7 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>4</v>
@@ -1066,7 +1066,7 @@
         <v>74</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1077,7 +1077,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>4</v>
@@ -1089,7 +1089,7 @@
         <v>74</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1100,7 +1100,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>4</v>
@@ -1112,7 +1112,7 @@
         <v>74</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1126,7 +1126,7 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1135,7 +1135,7 @@
         <v>74</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1149,7 +1149,7 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1158,7 +1158,7 @@
         <v>74</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1169,7 +1169,7 @@
         <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1178,7 +1178,7 @@
         <v>74</v>
       </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1189,7 +1189,7 @@
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1198,7 +1198,7 @@
         <v>74</v>
       </c>
       <c r="G17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1241,7 +1241,7 @@
         <v>74</v>
       </c>
       <c r="G19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1258,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1298,7 +1298,7 @@
         <v>75</v>
       </c>
       <c r="G22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1315,7 +1315,7 @@
         <v>4</v>
       </c>
       <c r="G23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1407,7 +1407,7 @@
         <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s">
         <v>89</v>
@@ -1419,12 +1419,12 @@
         <v>74</v>
       </c>
       <c r="G30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A32" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="33.6" x14ac:dyDescent="0.65">
@@ -1454,19 +1454,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1"/>
-    <hyperlink ref="G4" r:id="rId2"/>
-    <hyperlink ref="G5" r:id="rId3"/>
-    <hyperlink ref="G6" r:id="rId4"/>
-    <hyperlink ref="G7" r:id="rId5"/>
-    <hyperlink ref="G9" r:id="rId6"/>
-    <hyperlink ref="G13" r:id="rId7"/>
-    <hyperlink ref="G10" r:id="rId8"/>
-    <hyperlink ref="G11" r:id="rId9"/>
-    <hyperlink ref="G12" r:id="rId10"/>
-    <hyperlink ref="G15" r:id="rId11"/>
-    <hyperlink ref="G14" r:id="rId12" location="page=pro_info"/>
-    <hyperlink ref="G21" r:id="rId13" display="https://www.thegioiic.com/products/hang-rao-duc-don-2-54mm-40-chan-1-hang-cao-11-2mm-xuyen-lo-v1"/>
+    <hyperlink ref="G4" r:id="rId1"/>
+    <hyperlink ref="G5" r:id="rId2"/>
+    <hyperlink ref="G6" r:id="rId3"/>
+    <hyperlink ref="G7" r:id="rId4"/>
+    <hyperlink ref="G9" r:id="rId5"/>
+    <hyperlink ref="G13" r:id="rId6"/>
+    <hyperlink ref="G10" r:id="rId7"/>
+    <hyperlink ref="G11" r:id="rId8"/>
+    <hyperlink ref="G12" r:id="rId9"/>
+    <hyperlink ref="G15" r:id="rId10"/>
+    <hyperlink ref="G14" r:id="rId11" location="page=pro_info"/>
+    <hyperlink ref="G21" r:id="rId12" display="https://www.thegioiic.com/products/hang-rao-duc-don-2-54mm-40-chan-1-hang-cao-11-2mm-xuyen-lo-v1"/>
+    <hyperlink ref="G3" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId14"/>
